--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Igf2r</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Igf2r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H2">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I2">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J2">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N2">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O2">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P2">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q2">
-        <v>389.2944693121358</v>
+        <v>204.07012799784</v>
       </c>
       <c r="R2">
-        <v>1557.177877248543</v>
+        <v>816.2805119913601</v>
       </c>
       <c r="S2">
-        <v>0.01416340601249558</v>
+        <v>0.035182132012366</v>
       </c>
       <c r="T2">
-        <v>0.01105856388036523</v>
+        <v>0.02540555621616153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H3">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I3">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J3">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O3">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P3">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q3">
-        <v>267.8787069668472</v>
+        <v>180.282172629494</v>
       </c>
       <c r="R3">
-        <v>1607.272241801083</v>
+        <v>1081.693035776964</v>
       </c>
       <c r="S3">
-        <v>0.009746028233017869</v>
+        <v>0.03108103699035337</v>
       </c>
       <c r="T3">
-        <v>0.01141431754123113</v>
+        <v>0.0336661390604814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H4">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I4">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J4">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N4">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O4">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P4">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q4">
-        <v>299.8840010807612</v>
+        <v>119.450736117284</v>
       </c>
       <c r="R4">
-        <v>1799.304006484567</v>
+        <v>716.7044167037039</v>
       </c>
       <c r="S4">
-        <v>0.01091045262334036</v>
+        <v>0.02059356559573022</v>
       </c>
       <c r="T4">
-        <v>0.01277806382085583</v>
+        <v>0.02230639355154658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H5">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I5">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J5">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N5">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O5">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P5">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q5">
-        <v>554.869990703688</v>
+        <v>213.127924725573</v>
       </c>
       <c r="R5">
-        <v>2219.479962814752</v>
+        <v>852.5116989022921</v>
       </c>
       <c r="S5">
-        <v>0.02018741487998065</v>
+        <v>0.03674371578429195</v>
       </c>
       <c r="T5">
-        <v>0.01576201493007728</v>
+        <v>0.02653319976800671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H6">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I6">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J6">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N6">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O6">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P6">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q6">
-        <v>225.1692597329194</v>
+        <v>453.093012277334</v>
       </c>
       <c r="R6">
-        <v>1351.015558397516</v>
+        <v>2718.558073664004</v>
       </c>
       <c r="S6">
-        <v>0.008192162741909752</v>
+        <v>0.07811421655986053</v>
       </c>
       <c r="T6">
-        <v>0.009594467063907302</v>
+        <v>0.08461120773161579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H7">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I7">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J7">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N7">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O7">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P7">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q7">
-        <v>143.3040291742804</v>
+        <v>291.291151890986</v>
       </c>
       <c r="R7">
-        <v>859.8241750456822</v>
+        <v>1747.746911345916</v>
       </c>
       <c r="S7">
-        <v>0.005213722023865833</v>
+        <v>0.05021922542221024</v>
       </c>
       <c r="T7">
-        <v>0.006106187805869631</v>
+        <v>0.05439610741104075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>4.27412</v>
       </c>
       <c r="I8">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J8">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N8">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O8">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P8">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q8">
-        <v>41.94717749406</v>
+        <v>32.67302593973334</v>
       </c>
       <c r="R8">
-        <v>251.68306496436</v>
+        <v>196.0381556384</v>
       </c>
       <c r="S8">
-        <v>0.001526132408139166</v>
+        <v>0.005632900430519275</v>
       </c>
       <c r="T8">
-        <v>0.001787370147097362</v>
+        <v>0.006101405473265435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>4.27412</v>
       </c>
       <c r="I9">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J9">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O9">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P9">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q9">
         <v>28.86441127168444</v>
@@ -1013,10 +1013,10 @@
         <v>259.77970144516</v>
       </c>
       <c r="S9">
-        <v>0.001050152027268413</v>
+        <v>0.004976287013601401</v>
       </c>
       <c r="T9">
-        <v>0.001844869789910956</v>
+        <v>0.008085269355239155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>4.27412</v>
       </c>
       <c r="I10">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J10">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N10">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O10">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P10">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q10">
-        <v>32.31303913253778</v>
+        <v>19.12488142175111</v>
       </c>
       <c r="R10">
-        <v>290.81735219284</v>
+        <v>172.12393279576</v>
       </c>
       <c r="S10">
-        <v>0.001175620844396937</v>
+        <v>0.003297170975009214</v>
       </c>
       <c r="T10">
-        <v>0.00206528895236153</v>
+        <v>0.005357109702547665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>4.27412</v>
       </c>
       <c r="I11">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J11">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N11">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O11">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P11">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q11">
-        <v>59.78823697984</v>
+        <v>34.12324126691333</v>
       </c>
       <c r="R11">
-        <v>358.72942187904</v>
+        <v>204.73944760148</v>
       </c>
       <c r="S11">
-        <v>0.002175230171168472</v>
+        <v>0.005882920693591503</v>
       </c>
       <c r="T11">
-        <v>0.002547578080562898</v>
+        <v>0.006372220663477403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>4.27412</v>
       </c>
       <c r="I12">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J12">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N12">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O12">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P12">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q12">
-        <v>24.26239170803555</v>
+        <v>72.54329621141778</v>
       </c>
       <c r="R12">
-        <v>218.36152537232</v>
+        <v>652.88966590276</v>
       </c>
       <c r="S12">
-        <v>0.0008827202328414921</v>
+        <v>0.01250662137061669</v>
       </c>
       <c r="T12">
-        <v>0.001550731559075681</v>
+        <v>0.02032025126947911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>4.27412</v>
       </c>
       <c r="I13">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J13">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N13">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O13">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P13">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q13">
-        <v>15.44126624251556</v>
+        <v>46.63770957133778</v>
       </c>
       <c r="R13">
-        <v>138.97139618264</v>
+        <v>419.73938614204</v>
       </c>
       <c r="S13">
-        <v>0.0005617879019093788</v>
+        <v>0.008040442131297914</v>
       </c>
       <c r="T13">
-        <v>0.0009869290366138271</v>
+        <v>0.01306378434143188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H14">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I14">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J14">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N14">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O14">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P14">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q14">
-        <v>5011.117984056798</v>
+        <v>573.03922805682</v>
       </c>
       <c r="R14">
-        <v>20044.47193622719</v>
+        <v>2292.15691222728</v>
       </c>
       <c r="S14">
-        <v>0.1823157126021421</v>
+        <v>0.09879320392239249</v>
       </c>
       <c r="T14">
-        <v>0.1423492309989815</v>
+        <v>0.07134008522118163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H15">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I15">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J15">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O15">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P15">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q15">
-        <v>3448.216997275491</v>
+        <v>506.2414477296994</v>
       </c>
       <c r="R15">
-        <v>20689.30198365295</v>
+        <v>3037.448686378197</v>
       </c>
       <c r="S15">
-        <v>0.1254538689899612</v>
+        <v>0.08727712193303511</v>
       </c>
       <c r="T15">
-        <v>0.1469286013943769</v>
+        <v>0.09453621913284641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H16">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I16">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J16">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N16">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O16">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P16">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q16">
-        <v>3860.198973805108</v>
+        <v>335.4237010925569</v>
       </c>
       <c r="R16">
-        <v>23161.19384283065</v>
+        <v>2012.542206555342</v>
       </c>
       <c r="S16">
-        <v>0.1404426974049388</v>
+        <v>0.05782777248044671</v>
       </c>
       <c r="T16">
-        <v>0.1644831623918475</v>
+        <v>0.0626374799041885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H17">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I17">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J17">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N17">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O17">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P17">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q17">
-        <v>7142.456953323072</v>
+        <v>598.4739788245103</v>
       </c>
       <c r="R17">
-        <v>28569.82781329229</v>
+        <v>2393.895915298041</v>
       </c>
       <c r="S17">
-        <v>0.2598586050694074</v>
+        <v>0.1031782100376431</v>
       </c>
       <c r="T17">
-        <v>0.2028934976154303</v>
+        <v>0.07450656527787787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H18">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I18">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J18">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N18">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O18">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P18">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q18">
-        <v>2898.447873914384</v>
+        <v>1272.308066549019</v>
       </c>
       <c r="R18">
-        <v>17390.6872434863</v>
+        <v>7633.848399294116</v>
       </c>
       <c r="S18">
-        <v>0.1054520351055608</v>
+        <v>0.2193486660536594</v>
       </c>
       <c r="T18">
-        <v>0.1235029270678819</v>
+        <v>0.2375925454606151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H19">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I19">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J19">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N19">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O19">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P19">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q19">
-        <v>1844.653480569368</v>
+        <v>817.9602691343406</v>
       </c>
       <c r="R19">
-        <v>11067.92088341621</v>
+        <v>4907.761614806043</v>
       </c>
       <c r="S19">
-        <v>0.06711263132977836</v>
+        <v>0.1410181218186886</v>
       </c>
       <c r="T19">
-        <v>0.07860072500410359</v>
+        <v>0.1527470174392628</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H20">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I20">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J20">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4426765</v>
+        <v>22.93316</v>
       </c>
       <c r="N20">
-        <v>58.885353</v>
+        <v>45.86632</v>
       </c>
       <c r="O20">
-        <v>0.2070274275189755</v>
+        <v>0.1396482691634859</v>
       </c>
       <c r="P20">
-        <v>0.1657617245498156</v>
+        <v>0.102890409355429</v>
       </c>
       <c r="Q20">
-        <v>242.770276076535</v>
+        <v>0.2322058893866667</v>
       </c>
       <c r="R20">
-        <v>1456.62165645921</v>
+        <v>1.39323533632</v>
       </c>
       <c r="S20">
-        <v>0.008832527196990972</v>
+        <v>4.003279820815829E-05</v>
       </c>
       <c r="T20">
-        <v>0.01034444675385441</v>
+        <v>4.336244482043341E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H21">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I21">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J21">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>60.77969299999999</v>
       </c>
       <c r="O21">
-        <v>0.1424583290084953</v>
+        <v>0.1233698122098894</v>
       </c>
       <c r="P21">
-        <v>0.1710942741446817</v>
+        <v>0.1363450892347</v>
       </c>
       <c r="Q21">
-        <v>167.0534589414455</v>
+        <v>0.2051382171742222</v>
       </c>
       <c r="R21">
-        <v>1503.48113047301</v>
+        <v>1.846243954568</v>
       </c>
       <c r="S21">
-        <v>0.006077779550683418</v>
+        <v>3.536627289948719E-05</v>
       </c>
       <c r="T21">
-        <v>0.01067722728866238</v>
+        <v>5.746168613299219E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H22">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I22">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J22">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.68048566666667</v>
+        <v>13.42373266666667</v>
       </c>
       <c r="N22">
-        <v>68.04145700000001</v>
+        <v>40.271198</v>
       </c>
       <c r="O22">
-        <v>0.1594787961091443</v>
+        <v>0.08174194191351497</v>
       </c>
       <c r="P22">
-        <v>0.1915360727004919</v>
+        <v>0.09033905592281077</v>
       </c>
       <c r="Q22">
-        <v>187.0124737758322</v>
+        <v>0.1359197678275555</v>
       </c>
       <c r="R22">
-        <v>1683.11226398249</v>
+        <v>1.223277910448</v>
       </c>
       <c r="S22">
-        <v>0.006803933280039852</v>
+        <v>2.343286232882556E-05</v>
       </c>
       <c r="T22">
-        <v>0.01195290837419577</v>
+        <v>3.807276452804036E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H23">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I23">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J23">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.965296</v>
+        <v>23.9510645</v>
       </c>
       <c r="N23">
-        <v>83.930592</v>
+        <v>47.902129</v>
       </c>
       <c r="O23">
-        <v>0.2950807572114699</v>
+        <v>0.1458466561977509</v>
       </c>
       <c r="P23">
-        <v>0.2362638408978708</v>
+        <v>0.1074572728269146</v>
       </c>
       <c r="Q23">
-        <v>346.02582735824</v>
+        <v>0.2425125117506667</v>
       </c>
       <c r="R23">
-        <v>2076.15496414944</v>
+        <v>1.455075070504</v>
       </c>
       <c r="S23">
-        <v>0.01258919576315613</v>
+        <v>4.180968222430244E-05</v>
       </c>
       <c r="T23">
-        <v>0.0147441680440207</v>
+        <v>4.528711755256979E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H24">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I24">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J24">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.02974533333333</v>
+        <v>50.91805766666667</v>
       </c>
       <c r="N24">
-        <v>51.089236</v>
+        <v>152.754173</v>
       </c>
       <c r="O24">
-        <v>0.1197453759906399</v>
+        <v>0.3100583880423179</v>
       </c>
       <c r="P24">
-        <v>0.1438157272368313</v>
+        <v>0.3426684196752655</v>
       </c>
       <c r="Q24">
-        <v>140.4191625067244</v>
+        <v>0.515562306560889</v>
       </c>
       <c r="R24">
-        <v>1263.77246256052</v>
+        <v>4.640060759048001</v>
       </c>
       <c r="S24">
-        <v>0.005108764103511335</v>
+        <v>8.888405818129878E-05</v>
       </c>
       <c r="T24">
-        <v>0.008974895361450949</v>
+        <v>0.0001444152135554681</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H25">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I25">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J25">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.83820733333333</v>
+        <v>32.73495566666667</v>
       </c>
       <c r="N25">
-        <v>32.514622</v>
+        <v>98.20486700000001</v>
       </c>
       <c r="O25">
-        <v>0.07620931416127522</v>
+        <v>0.199334932473041</v>
       </c>
       <c r="P25">
-        <v>0.09152836047030874</v>
+        <v>0.2202997529848801</v>
       </c>
       <c r="Q25">
-        <v>89.36669145850445</v>
+        <v>0.3314523377768889</v>
       </c>
       <c r="R25">
-        <v>804.30022312654</v>
+        <v>2.983071039992</v>
       </c>
       <c r="S25">
-        <v>0.003251360691963371</v>
+        <v>5.714310084422184E-05</v>
       </c>
       <c r="T25">
-        <v>0.00571187500566912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J26">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>29.4426765</v>
-      </c>
-      <c r="N26">
-        <v>58.885353</v>
-      </c>
-      <c r="O26">
-        <v>0.2070274275189755</v>
-      </c>
-      <c r="P26">
-        <v>0.1657617245498156</v>
-      </c>
-      <c r="Q26">
-        <v>5.212688475168001</v>
-      </c>
-      <c r="R26">
-        <v>31.27613085100801</v>
-      </c>
-      <c r="S26">
-        <v>0.0001896492992076508</v>
-      </c>
-      <c r="T26">
-        <v>0.0002221127695171649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H27">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J27">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>20.25989766666666</v>
-      </c>
-      <c r="N27">
-        <v>60.77969299999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1424583290084953</v>
-      </c>
-      <c r="P27">
-        <v>0.1710942741446817</v>
-      </c>
-      <c r="Q27">
-        <v>3.586920335694222</v>
-      </c>
-      <c r="R27">
-        <v>32.282283021248</v>
-      </c>
-      <c r="S27">
-        <v>0.0001305002075644193</v>
-      </c>
-      <c r="T27">
-        <v>0.0002292581305003477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H28">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J28">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>22.68048566666667</v>
-      </c>
-      <c r="N28">
-        <v>68.04145700000001</v>
-      </c>
-      <c r="O28">
-        <v>0.1594787961091443</v>
-      </c>
-      <c r="P28">
-        <v>0.1915360727004919</v>
-      </c>
-      <c r="Q28">
-        <v>4.01547414501689</v>
-      </c>
-      <c r="R28">
-        <v>36.13926730515201</v>
-      </c>
-      <c r="S28">
-        <v>0.0001460919564283669</v>
-      </c>
-      <c r="T28">
-        <v>0.0002566491612311994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H29">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J29">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>41.965296</v>
-      </c>
-      <c r="N29">
-        <v>83.930592</v>
-      </c>
-      <c r="O29">
-        <v>0.2950807572114699</v>
-      </c>
-      <c r="P29">
-        <v>0.2362638408978708</v>
-      </c>
-      <c r="Q29">
-        <v>7.429759818752001</v>
-      </c>
-      <c r="R29">
-        <v>44.57855891251201</v>
-      </c>
-      <c r="S29">
-        <v>0.0002703113277572313</v>
-      </c>
-      <c r="T29">
-        <v>0.0003165822277797198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H30">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J30">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>17.02974533333333</v>
-      </c>
-      <c r="N30">
-        <v>51.089236</v>
-      </c>
-      <c r="O30">
-        <v>0.1197453759906399</v>
-      </c>
-      <c r="P30">
-        <v>0.1438157272368313</v>
-      </c>
-      <c r="Q30">
-        <v>3.015036939121778</v>
-      </c>
-      <c r="R30">
-        <v>27.135332452096</v>
-      </c>
-      <c r="S30">
-        <v>0.0001096938068164906</v>
-      </c>
-      <c r="T30">
-        <v>0.0001927061845154608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J31">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>10.83820733333333</v>
-      </c>
-      <c r="N31">
-        <v>32.514622</v>
-      </c>
-      <c r="O31">
-        <v>0.07620931416127522</v>
-      </c>
-      <c r="P31">
-        <v>0.09152836047030874</v>
-      </c>
-      <c r="Q31">
-        <v>1.918854030065778</v>
-      </c>
-      <c r="R31">
-        <v>17.269686270592</v>
-      </c>
-      <c r="S31">
-        <v>6.981221375828004E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001226436180525867</v>
+        <v>9.284379314463209E-05</v>
       </c>
     </row>
   </sheetData>
